--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vip-Vipr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vip-Vipr1.xlsx
@@ -531,16 +531,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.24009</v>
+        <v>0.6855646666666667</v>
       </c>
       <c r="H2">
-        <v>0.72027</v>
+        <v>2.056694</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.092341333333333</v>
+        <v>0.3806726666666667</v>
       </c>
       <c r="N2">
-        <v>3.277024</v>
+        <v>1.142018</v>
       </c>
       <c r="O2">
-        <v>0.1566881615238948</v>
+        <v>0.1106000967880863</v>
       </c>
       <c r="P2">
-        <v>0.1566881615238948</v>
+        <v>0.1106000967880863</v>
       </c>
       <c r="Q2">
-        <v>0.26226023072</v>
+        <v>0.2609757298324444</v>
       </c>
       <c r="R2">
-        <v>2.36034207648</v>
+        <v>2.348781568492</v>
       </c>
       <c r="S2">
-        <v>0.1566881615238948</v>
+        <v>0.1106000967880863</v>
       </c>
       <c r="T2">
-        <v>0.1566881615238948</v>
+        <v>0.1106000967880863</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.24009</v>
+        <v>0.6855646666666667</v>
       </c>
       <c r="H3">
-        <v>0.72027</v>
+        <v>2.056694</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.439512</v>
       </c>
       <c r="O3">
-        <v>0.02101489865429428</v>
+        <v>0.04256506442063556</v>
       </c>
       <c r="P3">
-        <v>0.02101489865429428</v>
+        <v>0.04256506442063556</v>
       </c>
       <c r="Q3">
-        <v>0.03517414536</v>
+        <v>0.1004379659253333</v>
       </c>
       <c r="R3">
-        <v>0.31656730824</v>
+        <v>0.9039416933280001</v>
       </c>
       <c r="S3">
-        <v>0.02101489865429428</v>
+        <v>0.04256506442063556</v>
       </c>
       <c r="T3">
-        <v>0.02101489865429428</v>
+        <v>0.04256506442063556</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.24009</v>
+        <v>0.6855646666666667</v>
       </c>
       <c r="H4">
-        <v>0.72027</v>
+        <v>2.056694</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.533112333333333</v>
+        <v>1.310315666666667</v>
       </c>
       <c r="N4">
-        <v>7.599337</v>
+        <v>3.930947</v>
       </c>
       <c r="O4">
-        <v>0.3633559422605724</v>
+        <v>0.3806972557953004</v>
       </c>
       <c r="P4">
-        <v>0.3633559422605724</v>
+        <v>0.3806972557953004</v>
       </c>
       <c r="Q4">
-        <v>0.6081749401100001</v>
+        <v>0.8983061232464445</v>
       </c>
       <c r="R4">
-        <v>5.47357446099</v>
+        <v>8.084755109218001</v>
       </c>
       <c r="S4">
-        <v>0.3633559422605724</v>
+        <v>0.3806972557953004</v>
       </c>
       <c r="T4">
-        <v>0.3633559422605724</v>
+        <v>0.3806972557953004</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.24009</v>
+        <v>0.6855646666666667</v>
       </c>
       <c r="H5">
-        <v>0.72027</v>
+        <v>2.056694</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.199477333333333</v>
+        <v>1.604391333333333</v>
       </c>
       <c r="N5">
-        <v>9.598431999999999</v>
+        <v>4.813174</v>
       </c>
       <c r="O5">
-        <v>0.4589409975612385</v>
+        <v>0.4661375829959777</v>
       </c>
       <c r="P5">
-        <v>0.4589409975612386</v>
+        <v>0.4661375829959777</v>
       </c>
       <c r="Q5">
-        <v>0.7681625129599998</v>
+        <v>1.099914009639556</v>
       </c>
       <c r="R5">
-        <v>6.913462616639999</v>
+        <v>9.899226086756002</v>
       </c>
       <c r="S5">
-        <v>0.4589409975612385</v>
+        <v>0.4661375829959777</v>
       </c>
       <c r="T5">
-        <v>0.4589409975612386</v>
+        <v>0.4661375829959777</v>
       </c>
     </row>
   </sheetData>
